--- a/data-raw/elections/State_Primary_Election_Unofficial_Results_Sept_6_2022_2.xlsx
+++ b/data-raw/elections/State_Primary_Election_Unofficial_Results_Sept_6_2022_2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sharon\Docs\R\FraminghamCityData\data-raw\elections\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71519275-A118-4F6F-83DB-B90B11BAC382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="25732" windowHeight="15832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -14,82 +20,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Candidate</t>
+      <t>Candidate</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">9A</t>
+      <t>9A</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">9B</t>
+      <t>9B</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">21A</t>
+      <t>21A</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">21B</t>
+      <t>21B</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">21C</t>
+      <t>21C</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Total</t>
+      <t>Total</t>
     </r>
   </si>
   <si>
@@ -97,32 +103,32 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Democrat</t>
+      <t>Democrat</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Governor</t>
+      <t>Governor</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Sonia Rosa Chang-Diaz</t>
+      <t>Sonia Rosa Chang-Diaz</t>
     </r>
   </si>
   <si>
@@ -130,42 +136,42 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Maura Healey</t>
+      <t>Maura Healey</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Blanks</t>
+      <t>Blanks</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Write-Ins</t>
+      <t>Write-Ins</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Lieutenant Governor</t>
+      <t>Lieutenant Governor</t>
     </r>
   </si>
   <si>
@@ -173,42 +179,42 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Kimberley Driscoll</t>
+      <t>Kimberley Driscoll</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Tami Gouveia</t>
+      <t>Tami Gouveia</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Eric P. Lesser</t>
+      <t>Eric P. Lesser</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Attorney General</t>
+      <t>Attorney General</t>
     </r>
   </si>
   <si>
@@ -216,42 +222,42 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Andrea Joy Campbell</t>
+      <t>Andrea Joy Campbell</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="8.0"/>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Shannon Erika Liss-Riordan</t>
+      <t>Shannon Erika Liss-Riordan</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Quentin Palfrey</t>
+      <t>Quentin Palfrey</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Secretary of State</t>
+      <t>Secretary of State</t>
     </r>
   </si>
   <si>
@@ -259,32 +265,32 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">William Francis Galvin</t>
+      <t>William Francis Galvin</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Tanisha M. Sullivan</t>
+      <t>Tanisha M. Sullivan</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Treasurer</t>
+      <t>Treasurer</t>
     </r>
   </si>
   <si>
@@ -292,32 +298,32 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Deborah B. Goldberg</t>
+      <t>Deborah B. Goldberg</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Auditor</t>
+      <t>Auditor</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Christopher S. Dempsey</t>
+      <t>Christopher S. Dempsey</t>
     </r>
   </si>
   <si>
@@ -325,22 +331,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Diana DiZoglio</t>
+      <t>Diana DiZoglio</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Rep. in Congress</t>
+      <t>Rep. in Congress</t>
     </r>
   </si>
   <si>
@@ -348,22 +354,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Katherine M. Clark</t>
+      <t>Katherine M. Clark</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Councillor</t>
+      <t>Councillor</t>
     </r>
   </si>
   <si>
@@ -371,22 +377,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Robert L. Jubinville</t>
+      <t>Robert L. Jubinville</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">State Senator</t>
+      <t>State Senator</t>
     </r>
   </si>
   <si>
@@ -394,22 +400,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Karen E. Spilka</t>
+      <t>Karen E. Spilka</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">State Representative - 4th Middlesex</t>
+      <t>State Representative - 4th Middlesex</t>
     </r>
   </si>
   <si>
@@ -417,42 +423,42 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Danielle W. Gregoire</t>
+      <t>Danielle W. Gregoire</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">State Representative - 6th Middlesex</t>
+      <t>State Representative - 6th Middlesex</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Dhruba Prasad Sen</t>
+      <t>Dhruba Prasad Sen</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Margareth B. Shepard</t>
+      <t>Margareth B. Shepard</t>
     </r>
   </si>
   <si>
@@ -460,22 +466,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Priscila S. Sousa</t>
+      <t>Priscila S. Sousa</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">State Representative - 7th Middlesex</t>
+      <t>State Representative - 7th Middlesex</t>
     </r>
   </si>
   <si>
@@ -483,22 +489,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Jack Patrick Lewis</t>
+      <t>Jack Patrick Lewis</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">State Representative - 19th Worcester</t>
+      <t>State Representative - 19th Worcester</t>
     </r>
   </si>
   <si>
@@ -506,22 +512,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Kate Donaghue</t>
+      <t>Kate Donaghue</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">District Attorney</t>
+      <t>District Attorney</t>
     </r>
   </si>
   <si>
@@ -529,22 +535,22 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Marian T. Ryan</t>
+      <t>Marian T. Ryan</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Sheriff</t>
+      <t>Sheriff</t>
     </r>
   </si>
   <si>
@@ -552,11 +558,11 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Peter J. Koutoujian</t>
+      <t>Peter J. Koutoujian</t>
     </r>
   </si>
   <si>
@@ -564,21 +570,21 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Republican</t>
+      <t>Republican</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Geoff Diehl</t>
+      <t>Geoff Diehl</t>
     </r>
   </si>
   <si>
@@ -586,21 +592,21 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Chris Doughty</t>
+      <t>Chris Doughty</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Leah V. Allen</t>
+      <t>Leah V. Allen</t>
     </r>
   </si>
   <si>
@@ -608,11 +614,11 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Kate Campanale</t>
+      <t>Kate Campanale</t>
     </r>
   </si>
   <si>
@@ -620,11 +626,11 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">James R. McMahon, III</t>
+      <t>James R. McMahon, III</t>
     </r>
   </si>
   <si>
@@ -632,11 +638,11 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Rayla Campbell</t>
+      <t>Rayla Campbell</t>
     </r>
   </si>
   <si>
@@ -644,11 +650,11 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Blanks</t>
+      <t>Blanks</t>
     </r>
   </si>
   <si>
@@ -656,11 +662,11 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Anthony Amore</t>
+      <t>Anthony Amore</t>
     </r>
   </si>
   <si>
@@ -668,21 +674,21 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Caroline Colarusso</t>
+      <t>Caroline Colarusso</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">David Morrell</t>
+      <t>David Morrell</t>
     </r>
   </si>
   <si>
@@ -690,95 +696,91 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Jonathan I. Hostage</t>
+      <t>Jonathan I. Hostage</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Democrat Turnout</t>
+      <t>Democrat Turnout</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Republican Turnout</t>
+      <t>Republican Turnout</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Total Turnout</t>
+      <t>Total Turnout</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Total Registered</t>
+      <t>Total Registered</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Percentage</t>
+      <t>Percentage</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">A True Copy Attest: Lisa Ferguson, City Clerk</t>
+      <t>A True Copy Attest: Lisa Ferguson, City Clerk</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Winners indicated in bold italics</t>
+      <t>Winners indicated in bold italics</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -846,6 +848,42 @@
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1026,138 +1064,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="3" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="4" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="7" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="8" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="6" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="7" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="8" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="6" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="10" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="11" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="12" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="13" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="1" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,6 +1197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1211,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1243,9 +1283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,6 +1335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1452,48 +1528,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="26.666667"/>
-    <col min="2" max="2" customWidth="1" width="8"/>
-    <col min="3" max="3" customWidth="1" width="9.333333"/>
-    <col min="4" max="4" customWidth="1" width="8"/>
-    <col min="5" max="5" customWidth="1" width="8"/>
-    <col min="6" max="6" customWidth="1" width="9.333333"/>
-    <col min="7" max="7" customWidth="1" width="8"/>
-    <col min="8" max="8" customWidth="1" width="9.333333"/>
-    <col min="9" max="9" customWidth="1" width="8"/>
-    <col min="10" max="10" customWidth="1" width="8"/>
-    <col min="11" max="11" customWidth="1" width="9.333333"/>
-    <col min="12" max="12" customWidth="1" width="8"/>
-    <col min="13" max="13" customWidth="1" width="8"/>
-    <col min="14" max="14" customWidth="1" width="9.333333"/>
-    <col min="15" max="15" customWidth="1" width="8"/>
-    <col min="16" max="16" customWidth="1" width="8"/>
-    <col min="17" max="17" customWidth="1" width="9.333333"/>
-    <col min="18" max="18" customWidth="1" width="8"/>
-    <col min="19" max="19" customWidth="1" width="9.333333"/>
-    <col min="20" max="20" customWidth="1" width="8"/>
-    <col min="21" max="21" customWidth="1" width="8"/>
-    <col min="22" max="22" customWidth="1" width="8"/>
-    <col min="23" max="23" customWidth="1" width="9.333333"/>
-    <col min="24" max="24" customWidth="1" width="8"/>
-    <col min="25" max="25" customWidth="1" width="9.333333"/>
-    <col min="26" max="26" customWidth="1" width="8"/>
-    <col min="27" max="27" customWidth="1" width="8"/>
-    <col min="28" max="28" customWidth="1" width="9.333333"/>
-    <col min="29" max="29" customWidth="1" width="8"/>
-    <col min="30" max="30" customWidth="1" width="9.333333"/>
-    <col min="31" max="31" customWidth="1" width="8"/>
-    <col min="32" max="32" customWidth="1" width="8"/>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" customWidth="1"/>
+    <col min="12" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" customWidth="1"/>
+    <col min="15" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="9.36328125" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" customWidth="1"/>
+    <col min="20" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="9.36328125" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="25" width="9.36328125" customWidth="1"/>
+    <col min="26" max="27" width="8" customWidth="1"/>
+    <col min="28" max="28" width="9.36328125" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" customWidth="1"/>
+    <col min="31" max="32" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.00" customHeight="1">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="12.00" customHeight="1">
+    <row r="2" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1625,7 +1696,7 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1732,7 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" customHeight="1">
+    <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1768,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:32" ht="14.25" customHeight="1">
+    <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1795,7 +1866,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.25" customHeight="1">
+    <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1964,7 @@
         <v>7104</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.25" customHeight="1">
+    <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +2062,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.25" customHeight="1">
+    <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -2089,7 +2160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="12.00" customHeight="1">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2123,7 +2194,7 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
     </row>
-    <row r="10" spans="1:32" ht="14.25" customHeight="1">
+    <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -2159,7 +2230,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
     </row>
-    <row r="11" spans="1:32" ht="14.25" customHeight="1">
+    <row r="11" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2328,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.25" customHeight="1">
+    <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2355,7 +2426,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.25" customHeight="1">
+    <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +2524,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.25" customHeight="1">
+    <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2622,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.25" customHeight="1">
+    <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -2649,7 +2720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="12.00" customHeight="1">
+    <row r="16" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2683,7 +2754,7 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
     </row>
-    <row r="17" spans="1:32" ht="14.25" customHeight="1">
+    <row r="17" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -2719,7 +2790,7 @@
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" customHeight="1">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +2888,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.25" customHeight="1">
+    <row r="19" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
@@ -2915,7 +2986,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="14.25" customHeight="1">
+    <row r="20" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -3013,7 +3084,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.25" customHeight="1">
+    <row r="21" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3111,7 +3182,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14.25" customHeight="1">
+    <row r="22" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
@@ -3209,7 +3280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="12.00" customHeight="1">
+    <row r="23" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3243,7 +3314,7 @@
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
     </row>
-    <row r="24" spans="1:32" ht="14.25" customHeight="1">
+    <row r="24" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
@@ -3279,7 +3350,7 @@
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
     </row>
-    <row r="25" spans="1:32" ht="14.25" customHeight="1">
+    <row r="25" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -3377,7 +3448,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="14.25" customHeight="1">
+    <row r="26" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -3475,7 +3546,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14.25" customHeight="1">
+    <row r="27" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3573,7 +3644,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="14.25" customHeight="1">
+    <row r="28" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3671,7 +3742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="13.00" customHeight="1">
+    <row r="29" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3705,7 +3776,7 @@
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
     </row>
-    <row r="30" spans="1:32" ht="14.25" customHeight="1">
+    <row r="30" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>24</v>
       </c>
@@ -3741,7 +3812,7 @@
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
     </row>
-    <row r="31" spans="1:32" ht="14.25" customHeight="1">
+    <row r="31" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +3910,7 @@
         <v>7018</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +4008,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="14.25" customHeight="1">
+    <row r="33" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="13.00" customHeight="1">
+    <row r="34" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4069,7 +4140,7 @@
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
     </row>
-    <row r="35" spans="1:32" ht="14.25" customHeight="1">
+    <row r="35" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>26</v>
       </c>
@@ -4105,7 +4176,7 @@
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
     </row>
-    <row r="36" spans="1:32" ht="14.25" customHeight="1">
+    <row r="36" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>27</v>
       </c>
@@ -4203,7 +4274,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" customHeight="1">
+    <row r="37" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -4301,7 +4372,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="14.25" customHeight="1">
+    <row r="38" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -4399,7 +4470,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="14.25" customHeight="1">
+    <row r="39" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>12</v>
       </c>
@@ -4497,7 +4568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="12.00" customHeight="1">
+    <row r="40" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4531,7 +4602,7 @@
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
     </row>
-    <row r="41" spans="1:32" ht="14.25" customHeight="1">
+    <row r="41" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>29</v>
       </c>
@@ -4567,7 +4638,7 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
     </row>
-    <row r="42" spans="1:32" ht="14.25" customHeight="1">
+    <row r="42" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>30</v>
       </c>
@@ -4665,7 +4736,7 @@
         <v>7268</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.25" customHeight="1">
+    <row r="43" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +4834,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.25" customHeight="1">
+    <row r="44" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>12</v>
       </c>
@@ -4861,7 +4932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="13.00" customHeight="1">
+    <row r="45" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -4895,7 +4966,7 @@
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
     </row>
-    <row r="46" spans="1:32" ht="14.25" customHeight="1">
+    <row r="46" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>31</v>
       </c>
@@ -4931,7 +5002,7 @@
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
     </row>
-    <row r="47" spans="1:32" ht="14.25" customHeight="1">
+    <row r="47" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>32</v>
       </c>
@@ -5029,7 +5100,7 @@
         <v>6529</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.25" customHeight="1">
+    <row r="48" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -5127,7 +5198,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="14.25" customHeight="1">
+    <row r="49" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="12.00" customHeight="1">
+    <row r="50" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5259,7 +5330,7 @@
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
     </row>
-    <row r="51" spans="1:32" ht="14.25" customHeight="1">
+    <row r="51" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>33</v>
       </c>
@@ -5295,7 +5366,7 @@
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
     </row>
-    <row r="52" spans="1:32" ht="14.25" customHeight="1">
+    <row r="52" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>34</v>
       </c>
@@ -5393,7 +5464,7 @@
         <v>7298</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="14.25" customHeight="1">
+    <row r="53" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -5491,7 +5562,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="14.25" customHeight="1">
+    <row r="54" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>12</v>
       </c>
@@ -5589,7 +5660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="12.75" customHeight="1">
+    <row r="55" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5623,7 +5694,7 @@
       <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
     </row>
-    <row r="56" spans="1:32" ht="14.25" customHeight="1">
+    <row r="56" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -5721,7 +5792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="12.00" customHeight="1">
+    <row r="57" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5755,221 +5826,221 @@
       <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
     </row>
-    <row r="58" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
       <c r="X58" s="6"/>
-      <c r="Y58" s="18"/>
+      <c r="Y58" s="14"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
       <c r="AF58" s="6"/>
     </row>
-    <row r="59" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="21">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="16">
         <v>158</v>
       </c>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="22">
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="17">
         <v>383</v>
       </c>
-      <c r="AA59" s="23">
+      <c r="AA59" s="18">
         <v>302</v>
       </c>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="22">
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="34"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="17">
         <v>843</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A60" s="24" t="s">
+    <row r="60" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="25">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="20">
         <v>40</v>
       </c>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="26">
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="21">
         <v>118</v>
       </c>
-      <c r="AA60" s="27">
+      <c r="AA60" s="22">
         <v>63</v>
       </c>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="20"/>
-      <c r="AD60" s="20"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="26">
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
+      <c r="AD60" s="34"/>
+      <c r="AE60" s="34"/>
+      <c r="AF60" s="21">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A61" s="24" t="s">
+    <row r="61" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="20"/>
-      <c r="AD61" s="20"/>
-      <c r="AE61" s="20"/>
-      <c r="AF61" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" ht="13.00" customHeight="1">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
       <c r="X62" s="6"/>
-      <c r="Y62" s="28"/>
+      <c r="Y62" s="23"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
-      <c r="AE62" s="28"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="23"/>
+      <c r="AD62" s="23"/>
+      <c r="AE62" s="23"/>
       <c r="AF62" s="6"/>
     </row>
-    <row r="63" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A63" s="29" t="s">
+    <row r="63" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="18"/>
+      <c r="J63" s="14"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -5978,22 +6049,22 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
       <c r="AF63" s="6"/>
     </row>
-    <row r="64" spans="1:32" ht="14.25" customHeight="1">
+    <row r="64" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>38</v>
       </c>
@@ -6018,11 +6089,11 @@
       <c r="H64" s="10">
         <v>16</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="22">
         <v>21</v>
       </c>
-      <c r="J64" s="32"/>
-      <c r="K64" s="26">
+      <c r="J64" s="38"/>
+      <c r="K64" s="21">
         <v>1</v>
       </c>
       <c r="L64" s="10">
@@ -6043,27 +6114,27 @@
       <c r="Q64" s="10">
         <v>4</v>
       </c>
-      <c r="R64" s="27">
+      <c r="R64" s="22">
         <v>14</v>
       </c>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="26">
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="21">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="14.25" customHeight="1">
+    <row r="65" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>39</v>
       </c>
@@ -6088,11 +6159,11 @@
       <c r="H65" s="10">
         <v>203</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="22">
         <v>75</v>
       </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="26">
+      <c r="J65" s="38"/>
+      <c r="K65" s="21">
         <v>4</v>
       </c>
       <c r="L65" s="10">
@@ -6113,27 +6184,27 @@
       <c r="Q65" s="10">
         <v>75</v>
       </c>
-      <c r="R65" s="27">
+      <c r="R65" s="22">
         <v>148</v>
       </c>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="32"/>
-      <c r="AF65" s="26">
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="21">
         <v>1428</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="14.25" customHeight="1">
+    <row r="66" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>40</v>
       </c>
@@ -6158,11 +6229,11 @@
       <c r="H66" s="12">
         <v>215</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="18">
         <v>120</v>
       </c>
-      <c r="J66" s="32"/>
-      <c r="K66" s="22">
+      <c r="J66" s="38"/>
+      <c r="K66" s="17">
         <v>4</v>
       </c>
       <c r="L66" s="12">
@@ -6183,27 +6254,27 @@
       <c r="Q66" s="12">
         <v>97</v>
       </c>
-      <c r="R66" s="23">
+      <c r="R66" s="18">
         <v>166</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32"/>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="22">
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="17">
         <v>1689</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="14.25" customHeight="1">
+    <row r="67" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -6228,11 +6299,11 @@
       <c r="H67" s="10">
         <v>18</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I67" s="22">
         <v>9</v>
       </c>
-      <c r="J67" s="32"/>
-      <c r="K67" s="26">
+      <c r="J67" s="38"/>
+      <c r="K67" s="21">
         <v>2</v>
       </c>
       <c r="L67" s="10">
@@ -6253,27 +6324,27 @@
       <c r="Q67" s="10">
         <v>1</v>
       </c>
-      <c r="R67" s="27">
+      <c r="R67" s="22">
         <v>14</v>
       </c>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="32"/>
-      <c r="AC67" s="32"/>
-      <c r="AD67" s="32"/>
-      <c r="AE67" s="32"/>
-      <c r="AF67" s="26">
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="38"/>
+      <c r="AB67" s="38"/>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="38"/>
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="21">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="14.25" customHeight="1">
+    <row r="68" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>12</v>
       </c>
@@ -6298,11 +6369,11 @@
       <c r="H68" s="10">
         <v>0</v>
       </c>
-      <c r="I68" s="27">
-        <v>0</v>
-      </c>
-      <c r="J68" s="32"/>
-      <c r="K68" s="26">
+      <c r="I68" s="22">
+        <v>0</v>
+      </c>
+      <c r="J68" s="38"/>
+      <c r="K68" s="21">
         <v>0</v>
       </c>
       <c r="L68" s="10">
@@ -6323,27 +6394,27 @@
       <c r="Q68" s="10">
         <v>0</v>
       </c>
-      <c r="R68" s="27">
-        <v>0</v>
-      </c>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="32"/>
-      <c r="W68" s="32"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-      <c r="AB68" s="32"/>
-      <c r="AC68" s="32"/>
-      <c r="AD68" s="32"/>
-      <c r="AE68" s="32"/>
-      <c r="AF68" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="13.00" customHeight="1">
+      <c r="R68" s="22">
+        <v>0</v>
+      </c>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="38"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6353,7 +6424,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="28"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -6362,81 +6433,81 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="28"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="23"/>
       <c r="AF69" s="6"/>
     </row>
-    <row r="70" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
       <c r="Y70" s="6"/>
-      <c r="Z70" s="18"/>
-      <c r="AA70" s="18"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="6"/>
     </row>
-    <row r="71" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A71" s="19" t="s">
+    <row r="71" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="21">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="16">
         <v>268</v>
       </c>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="22">
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="17">
         <v>363</v>
       </c>
       <c r="T71" s="12">
@@ -6445,17 +6516,17 @@
       <c r="U71" s="12">
         <v>334</v>
       </c>
-      <c r="V71" s="23">
+      <c r="V71" s="18">
         <v>364</v>
       </c>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
-      <c r="Y71" s="21">
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="16">
         <v>7</v>
       </c>
-      <c r="Z71" s="20"/>
-      <c r="AA71" s="20"/>
-      <c r="AB71" s="22">
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="17">
         <v>349</v>
       </c>
       <c r="AC71" s="12">
@@ -6471,30 +6542,30 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A72" s="24" t="s">
+    <row r="72" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="25">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="20">
         <v>32</v>
       </c>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="26">
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="21">
         <v>35</v>
       </c>
       <c r="T72" s="10">
@@ -6503,17 +6574,17 @@
       <c r="U72" s="10">
         <v>63</v>
       </c>
-      <c r="V72" s="27">
+      <c r="V72" s="22">
         <v>75</v>
       </c>
-      <c r="W72" s="20"/>
-      <c r="X72" s="20"/>
-      <c r="Y72" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="20"/>
-      <c r="AB72" s="26">
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="21">
         <v>54</v>
       </c>
       <c r="AC72" s="10">
@@ -6529,30 +6600,30 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A73" s="24" t="s">
+    <row r="73" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="25">
-        <v>1</v>
-      </c>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="26">
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="20">
+        <v>1</v>
+      </c>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="21">
         <v>1</v>
       </c>
       <c r="T73" s="10">
@@ -6561,17 +6632,17 @@
       <c r="U73" s="10">
         <v>1</v>
       </c>
-      <c r="V73" s="27">
-        <v>1</v>
-      </c>
-      <c r="W73" s="20"/>
-      <c r="X73" s="20"/>
-      <c r="Y73" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="20"/>
-      <c r="AB73" s="26">
+      <c r="V73" s="22">
+        <v>1</v>
+      </c>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="21">
         <v>0</v>
       </c>
       <c r="AC73" s="10">
@@ -6587,231 +6658,231 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="12.00" customHeight="1">
+    <row r="74" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
       <c r="Y74" s="6"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
       <c r="AF74" s="6"/>
     </row>
-    <row r="75" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-      <c r="AC75" s="18"/>
-      <c r="AD75" s="18"/>
-      <c r="AE75" s="18"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="14"/>
       <c r="AF75" s="6"/>
     </row>
-    <row r="76" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A76" s="19" t="s">
+    <row r="76" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="21">
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="16">
         <v>269</v>
       </c>
-      <c r="X76" s="20"/>
-      <c r="Y76" s="20"/>
-      <c r="Z76" s="20"/>
-      <c r="AA76" s="20"/>
-      <c r="AB76" s="20"/>
-      <c r="AC76" s="20"/>
-      <c r="AD76" s="20"/>
-      <c r="AE76" s="20"/>
-      <c r="AF76" s="22">
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="17">
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="25">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="20">
         <v>61</v>
       </c>
-      <c r="X77" s="20"/>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="20"/>
-      <c r="AB77" s="20"/>
-      <c r="AC77" s="20"/>
-      <c r="AD77" s="20"/>
-      <c r="AE77" s="20"/>
-      <c r="AF77" s="26">
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="34"/>
+      <c r="AE77" s="34"/>
+      <c r="AF77" s="21">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A78" s="24" t="s">
+    <row r="78" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="25">
-        <v>0</v>
-      </c>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="20"/>
-      <c r="AA78" s="20"/>
-      <c r="AB78" s="20"/>
-      <c r="AC78" s="20"/>
-      <c r="AD78" s="20"/>
-      <c r="AE78" s="20"/>
-      <c r="AF78" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="13.00" customHeight="1">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="20">
+        <v>0</v>
+      </c>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
       <c r="W79" s="6"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="28"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="23"/>
+      <c r="Z79" s="23"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="23"/>
+      <c r="AD79" s="23"/>
+      <c r="AE79" s="23"/>
       <c r="AF79" s="6"/>
     </row>
-    <row r="80" spans="1:32" ht="14.25" customHeight="1">
+    <row r="80" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>45</v>
       </c>
@@ -6847,7 +6918,7 @@
       <c r="AE80" s="6"/>
       <c r="AF80" s="6"/>
     </row>
-    <row r="81" spans="1:32" ht="14.25" customHeight="1">
+    <row r="81" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>46</v>
       </c>
@@ -6945,7 +7016,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="14.25" customHeight="1">
+    <row r="82" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
@@ -7043,7 +7114,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="14.25" customHeight="1">
+    <row r="83" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>12</v>
       </c>
@@ -7141,7 +7212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="12.00" customHeight="1">
+    <row r="84" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7175,7 +7246,7 @@
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
     </row>
-    <row r="85" spans="1:32" ht="14.25" customHeight="1">
+    <row r="85" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>47</v>
       </c>
@@ -7211,7 +7282,7 @@
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
     </row>
-    <row r="86" spans="1:32" ht="14.25" customHeight="1">
+    <row r="86" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>48</v>
       </c>
@@ -7309,7 +7380,7 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="14.25" customHeight="1">
+    <row r="87" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -7407,7 +7478,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="14.25" customHeight="1">
+    <row r="88" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>12</v>
       </c>
@@ -7505,7 +7576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="14.25" customHeight="1">
+    <row r="89" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -7541,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="14.25" customHeight="1">
+    <row r="90" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -7639,7 +7710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="12.00" customHeight="1">
+    <row r="91" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -7673,7 +7744,7 @@
       <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
     </row>
-    <row r="92" spans="1:32" ht="15.75" customHeight="1">
+    <row r="92" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>49</v>
       </c>
@@ -7709,7 +7780,7 @@
       <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
     </row>
-    <row r="93" spans="1:32" ht="14.25" customHeight="1">
+    <row r="93" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>8</v>
       </c>
@@ -7745,7 +7816,7 @@
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
     </row>
-    <row r="94" spans="1:32" ht="14.25" customHeight="1">
+    <row r="94" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>50</v>
       </c>
@@ -7836,14 +7907,14 @@
       <c r="AD94" s="10">
         <v>53</v>
       </c>
-      <c r="AE94" s="33">
+      <c r="AE94" s="24">
         <v>39</v>
       </c>
       <c r="AF94" s="10">
         <v>893</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="14.25" customHeight="1">
+    <row r="95" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>51</v>
       </c>
@@ -7934,14 +8005,14 @@
       <c r="AD95" s="12">
         <v>44</v>
       </c>
-      <c r="AE95" s="34">
+      <c r="AE95" s="25">
         <v>34</v>
       </c>
       <c r="AF95" s="12">
         <v>956</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="14.25" customHeight="1">
+    <row r="96" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -8039,7 +8110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="14.25" customHeight="1">
+    <row r="97" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>12</v>
       </c>
@@ -8137,7 +8208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="14.25" customHeight="1">
+    <row r="98" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -8173,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="14.25" customHeight="1">
+    <row r="99" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
@@ -8209,7 +8280,7 @@
       <c r="AE99" s="6"/>
       <c r="AF99" s="6"/>
     </row>
-    <row r="100" spans="1:32" ht="14.25" customHeight="1">
+    <row r="100" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>52</v>
       </c>
@@ -8307,7 +8378,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="14.25" customHeight="1">
+    <row r="101" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>53</v>
       </c>
@@ -8405,7 +8476,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="14.25" customHeight="1">
+    <row r="102" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
@@ -8503,7 +8574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="14.25" customHeight="1">
+    <row r="103" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>12</v>
       </c>
@@ -8601,7 +8672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="14.25" customHeight="1">
+    <row r="104" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -8637,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="14.25" customHeight="1">
+    <row r="105" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>17</v>
       </c>
@@ -8673,7 +8744,7 @@
       <c r="AE105" s="6"/>
       <c r="AF105" s="6"/>
     </row>
-    <row r="106" spans="1:32" ht="14.25" customHeight="1">
+    <row r="106" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>54</v>
       </c>
@@ -8771,7 +8842,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="14.25" customHeight="1">
+    <row r="107" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -8869,7 +8940,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="14.25" customHeight="1">
+    <row r="108" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>12</v>
       </c>
@@ -8967,7 +9038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="14.25" customHeight="1">
+    <row r="109" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -9003,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="14.25" customHeight="1">
+    <row r="110" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>21</v>
       </c>
@@ -9039,7 +9110,7 @@
       <c r="AE110" s="6"/>
       <c r="AF110" s="6"/>
     </row>
-    <row r="111" spans="1:32" ht="14.25" customHeight="1">
+    <row r="111" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>55</v>
       </c>
@@ -9137,7 +9208,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="14.25" customHeight="1">
+    <row r="112" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -9235,7 +9306,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="14.25" customHeight="1">
+    <row r="113" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>12</v>
       </c>
@@ -9333,7 +9404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="14.25" customHeight="1">
+    <row r="114" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -9369,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="14.25" customHeight="1">
+    <row r="115" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>24</v>
       </c>
@@ -9405,7 +9476,7 @@
       <c r="AE115" s="6"/>
       <c r="AF115" s="6"/>
     </row>
-    <row r="116" spans="1:32" ht="14.25" customHeight="1">
+    <row r="116" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>56</v>
       </c>
@@ -9503,7 +9574,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="14.25" customHeight="1">
+    <row r="117" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>12</v>
       </c>
@@ -9601,7 +9672,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="14.25" customHeight="1">
+    <row r="118" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -9637,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="14.25" customHeight="1">
+    <row r="119" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>26</v>
       </c>
@@ -9673,7 +9744,7 @@
       <c r="AE119" s="6"/>
       <c r="AF119" s="6"/>
     </row>
-    <row r="120" spans="1:32" ht="14.25" customHeight="1">
+    <row r="120" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
         <v>57</v>
       </c>
@@ -9771,7 +9842,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="14.25" customHeight="1">
+    <row r="121" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>11</v>
       </c>
@@ -9869,7 +9940,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="14.25" customHeight="1">
+    <row r="122" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>12</v>
       </c>
@@ -9967,7 +10038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="14.25" customHeight="1">
+    <row r="123" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -10003,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="14.25" customHeight="1">
+    <row r="124" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>29</v>
       </c>
@@ -10039,7 +10110,7 @@
       <c r="AE124" s="6"/>
       <c r="AF124" s="6"/>
     </row>
-    <row r="125" spans="1:32" ht="14.25" customHeight="1">
+    <row r="125" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
         <v>58</v>
       </c>
@@ -10137,7 +10208,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="14.25" customHeight="1">
+    <row r="126" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -10235,7 +10306,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="14.25" customHeight="1">
+    <row r="127" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>12</v>
       </c>
@@ -10333,7 +10404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="14.25" customHeight="1">
+    <row r="128" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -10369,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="14.25" customHeight="1">
+    <row r="129" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>31</v>
       </c>
@@ -10405,7 +10476,7 @@
       <c r="AE129" s="6"/>
       <c r="AF129" s="6"/>
     </row>
-    <row r="130" spans="1:32" ht="14.25" customHeight="1">
+    <row r="130" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -10503,7 +10574,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="14.25" customHeight="1">
+    <row r="131" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>12</v>
       </c>
@@ -10601,7 +10672,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="14.25" customHeight="1">
+    <row r="132" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -10637,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="14.25" customHeight="1">
+    <row r="133" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>33</v>
       </c>
@@ -10675,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="14.25" customHeight="1">
+    <row r="134" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -10773,7 +10844,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="14.25" customHeight="1">
+    <row r="135" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>12</v>
       </c>
@@ -10871,7 +10942,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="14.25" customHeight="1">
+    <row r="136" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -10907,203 +10978,203 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A137" s="15" t="s">
+    <row r="137" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-      <c r="Q137" s="18"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="18"/>
-      <c r="T137" s="18"/>
-      <c r="U137" s="18"/>
-      <c r="V137" s="18"/>
-      <c r="W137" s="18"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14"/>
+      <c r="U137" s="14"/>
+      <c r="V137" s="14"/>
+      <c r="W137" s="14"/>
       <c r="X137" s="6"/>
-      <c r="Y137" s="18"/>
+      <c r="Y137" s="14"/>
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
-      <c r="AB137" s="18"/>
-      <c r="AC137" s="18"/>
-      <c r="AD137" s="18"/>
-      <c r="AE137" s="18"/>
+      <c r="AB137" s="14"/>
+      <c r="AC137" s="14"/>
+      <c r="AD137" s="14"/>
+      <c r="AE137" s="14"/>
       <c r="AF137" s="6"/>
     </row>
-    <row r="138" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A138" s="24" t="s">
+    <row r="138" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="20"/>
-      <c r="O138" s="20"/>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="20"/>
-      <c r="R138" s="20"/>
-      <c r="S138" s="20"/>
-      <c r="T138" s="20"/>
-      <c r="U138" s="20"/>
-      <c r="V138" s="20"/>
-      <c r="W138" s="20"/>
-      <c r="X138" s="25">
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="34"/>
+      <c r="O138" s="34"/>
+      <c r="P138" s="34"/>
+      <c r="Q138" s="34"/>
+      <c r="R138" s="34"/>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
+      <c r="U138" s="34"/>
+      <c r="V138" s="34"/>
+      <c r="W138" s="34"/>
+      <c r="X138" s="20">
         <v>47</v>
       </c>
-      <c r="Y138" s="20"/>
-      <c r="Z138" s="26">
+      <c r="Y138" s="34"/>
+      <c r="Z138" s="21">
         <v>82</v>
       </c>
-      <c r="AA138" s="27">
+      <c r="AA138" s="22">
         <v>110</v>
       </c>
-      <c r="AB138" s="20"/>
-      <c r="AC138" s="20"/>
-      <c r="AD138" s="20"/>
-      <c r="AE138" s="20"/>
-      <c r="AF138" s="26">
+      <c r="AB138" s="34"/>
+      <c r="AC138" s="34"/>
+      <c r="AD138" s="34"/>
+      <c r="AE138" s="34"/>
+      <c r="AF138" s="21">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A139" s="24" t="s">
+    <row r="139" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="20"/>
-      <c r="O139" s="20"/>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="20"/>
-      <c r="R139" s="20"/>
-      <c r="S139" s="20"/>
-      <c r="T139" s="20"/>
-      <c r="U139" s="20"/>
-      <c r="V139" s="20"/>
-      <c r="W139" s="20"/>
-      <c r="X139" s="25">
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="34"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="34"/>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="34"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="34"/>
+      <c r="W139" s="34"/>
+      <c r="X139" s="20">
         <v>3</v>
       </c>
-      <c r="Y139" s="20"/>
-      <c r="Z139" s="26">
+      <c r="Y139" s="34"/>
+      <c r="Z139" s="21">
         <v>12</v>
       </c>
-      <c r="AA139" s="27">
+      <c r="AA139" s="22">
         <v>9</v>
       </c>
-      <c r="AB139" s="20"/>
-      <c r="AC139" s="20"/>
-      <c r="AD139" s="20"/>
-      <c r="AE139" s="20"/>
-      <c r="AF139" s="26">
+      <c r="AB139" s="34"/>
+      <c r="AC139" s="34"/>
+      <c r="AD139" s="34"/>
+      <c r="AE139" s="34"/>
+      <c r="AF139" s="21">
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A140" s="35"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="20"/>
-      <c r="O140" s="20"/>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="20"/>
-      <c r="S140" s="20"/>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
-      <c r="V140" s="20"/>
-      <c r="W140" s="20"/>
-      <c r="X140" s="36"/>
-      <c r="Y140" s="20"/>
-      <c r="Z140" s="37"/>
-      <c r="AA140" s="35"/>
-      <c r="AB140" s="20"/>
-      <c r="AC140" s="20"/>
-      <c r="AD140" s="20"/>
-      <c r="AE140" s="20"/>
-      <c r="AF140" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:32" ht="14.25" customHeight="1">
+    <row r="140" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="26"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="34"/>
+      <c r="K140" s="34"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="34"/>
+      <c r="N140" s="34"/>
+      <c r="O140" s="34"/>
+      <c r="P140" s="34"/>
+      <c r="Q140" s="34"/>
+      <c r="R140" s="34"/>
+      <c r="S140" s="34"/>
+      <c r="T140" s="34"/>
+      <c r="U140" s="34"/>
+      <c r="V140" s="34"/>
+      <c r="W140" s="34"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="34"/>
+      <c r="Z140" s="28"/>
+      <c r="AA140" s="26"/>
+      <c r="AB140" s="34"/>
+      <c r="AC140" s="34"/>
+      <c r="AD140" s="34"/>
+      <c r="AE140" s="34"/>
+      <c r="AF140" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B141" s="40"/>
       <c r="C141" s="41"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="28"/>
-      <c r="O141" s="28"/>
-      <c r="P141" s="28"/>
-      <c r="Q141" s="28"/>
-      <c r="R141" s="28"/>
-      <c r="S141" s="42"/>
-      <c r="T141" s="42"/>
-      <c r="U141" s="42"/>
-      <c r="V141" s="42"/>
-      <c r="W141" s="42"/>
-      <c r="X141" s="18"/>
-      <c r="Y141" s="42"/>
-      <c r="Z141" s="18"/>
-      <c r="AA141" s="18"/>
-      <c r="AB141" s="42"/>
-      <c r="AC141" s="42"/>
-      <c r="AD141" s="42"/>
-      <c r="AE141" s="42"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="23"/>
+      <c r="N141" s="23"/>
+      <c r="O141" s="23"/>
+      <c r="P141" s="23"/>
+      <c r="Q141" s="23"/>
+      <c r="R141" s="23"/>
+      <c r="S141" s="29"/>
+      <c r="T141" s="29"/>
+      <c r="U141" s="29"/>
+      <c r="V141" s="29"/>
+      <c r="W141" s="29"/>
+      <c r="X141" s="14"/>
+      <c r="Y141" s="29"/>
+      <c r="Z141" s="14"/>
+      <c r="AA141" s="14"/>
+      <c r="AB141" s="29"/>
+      <c r="AC141" s="29"/>
+      <c r="AD141" s="29"/>
+      <c r="AE141" s="29"/>
       <c r="AF141" s="6"/>
     </row>
-    <row r="142" spans="1:32" ht="14.25" customHeight="1">
+    <row r="142" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>11</v>
       </c>
@@ -11128,11 +11199,11 @@
       <c r="H142" s="10">
         <v>73</v>
       </c>
-      <c r="I142" s="27">
+      <c r="I142" s="22">
         <v>44</v>
       </c>
-      <c r="J142" s="20"/>
-      <c r="K142" s="26">
+      <c r="J142" s="34"/>
+      <c r="K142" s="21">
         <v>1</v>
       </c>
       <c r="L142" s="10">
@@ -11153,27 +11224,27 @@
       <c r="Q142" s="10">
         <v>35</v>
       </c>
-      <c r="R142" s="27">
+      <c r="R142" s="22">
         <v>70</v>
       </c>
-      <c r="S142" s="20"/>
-      <c r="T142" s="20"/>
-      <c r="U142" s="20"/>
-      <c r="V142" s="20"/>
-      <c r="W142" s="20"/>
-      <c r="X142" s="20"/>
-      <c r="Y142" s="20"/>
-      <c r="Z142" s="20"/>
-      <c r="AA142" s="20"/>
-      <c r="AB142" s="20"/>
-      <c r="AC142" s="20"/>
-      <c r="AD142" s="20"/>
-      <c r="AE142" s="20"/>
-      <c r="AF142" s="26">
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
+      <c r="U142" s="34"/>
+      <c r="V142" s="34"/>
+      <c r="W142" s="34"/>
+      <c r="X142" s="34"/>
+      <c r="Y142" s="34"/>
+      <c r="Z142" s="34"/>
+      <c r="AA142" s="34"/>
+      <c r="AB142" s="34"/>
+      <c r="AC142" s="34"/>
+      <c r="AD142" s="34"/>
+      <c r="AE142" s="34"/>
+      <c r="AF142" s="21">
         <v>565</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="14.25" customHeight="1">
+    <row r="143" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>12</v>
       </c>
@@ -11198,11 +11269,11 @@
       <c r="H143" s="10">
         <v>2</v>
       </c>
-      <c r="I143" s="27">
+      <c r="I143" s="22">
         <v>2</v>
       </c>
-      <c r="J143" s="20"/>
-      <c r="K143" s="26">
+      <c r="J143" s="34"/>
+      <c r="K143" s="21">
         <v>0</v>
       </c>
       <c r="L143" s="10">
@@ -11223,27 +11294,27 @@
       <c r="Q143" s="10">
         <v>3</v>
       </c>
-      <c r="R143" s="27">
+      <c r="R143" s="22">
         <v>10</v>
       </c>
-      <c r="S143" s="20"/>
-      <c r="T143" s="20"/>
-      <c r="U143" s="20"/>
-      <c r="V143" s="20"/>
-      <c r="W143" s="20"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="20"/>
-      <c r="Z143" s="20"/>
-      <c r="AA143" s="20"/>
-      <c r="AB143" s="20"/>
-      <c r="AC143" s="20"/>
-      <c r="AD143" s="20"/>
-      <c r="AE143" s="20"/>
-      <c r="AF143" s="26">
+      <c r="S143" s="34"/>
+      <c r="T143" s="34"/>
+      <c r="U143" s="34"/>
+      <c r="V143" s="34"/>
+      <c r="W143" s="34"/>
+      <c r="X143" s="34"/>
+      <c r="Y143" s="34"/>
+      <c r="Z143" s="34"/>
+      <c r="AA143" s="34"/>
+      <c r="AB143" s="34"/>
+      <c r="AC143" s="34"/>
+      <c r="AD143" s="34"/>
+      <c r="AE143" s="34"/>
+      <c r="AF143" s="21">
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="14.25" customHeight="1">
+    <row r="144" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>59</v>
       </c>
@@ -11268,11 +11339,11 @@
       <c r="H144" s="10">
         <v>3</v>
       </c>
-      <c r="I144" s="27">
-        <v>0</v>
-      </c>
-      <c r="J144" s="20"/>
-      <c r="K144" s="26">
+      <c r="I144" s="22">
+        <v>0</v>
+      </c>
+      <c r="J144" s="34"/>
+      <c r="K144" s="21">
         <v>2</v>
       </c>
       <c r="L144" s="10">
@@ -11293,27 +11364,27 @@
       <c r="Q144" s="10">
         <v>0</v>
       </c>
-      <c r="R144" s="27">
-        <v>0</v>
-      </c>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-      <c r="V144" s="20"/>
-      <c r="W144" s="20"/>
-      <c r="X144" s="20"/>
-      <c r="Y144" s="20"/>
-      <c r="Z144" s="20"/>
-      <c r="AA144" s="20"/>
-      <c r="AB144" s="20"/>
-      <c r="AC144" s="20"/>
-      <c r="AD144" s="20"/>
-      <c r="AE144" s="20"/>
-      <c r="AF144" s="26">
+      <c r="R144" s="22">
+        <v>0</v>
+      </c>
+      <c r="S144" s="34"/>
+      <c r="T144" s="34"/>
+      <c r="U144" s="34"/>
+      <c r="V144" s="34"/>
+      <c r="W144" s="34"/>
+      <c r="X144" s="34"/>
+      <c r="Y144" s="34"/>
+      <c r="Z144" s="34"/>
+      <c r="AA144" s="34"/>
+      <c r="AB144" s="34"/>
+      <c r="AC144" s="34"/>
+      <c r="AD144" s="34"/>
+      <c r="AE144" s="34"/>
+      <c r="AF144" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="11.25" customHeight="1">
+    <row r="145" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -11323,7 +11394,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="28"/>
+      <c r="J145" s="23"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
@@ -11332,22 +11403,22 @@
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="28"/>
-      <c r="T145" s="28"/>
-      <c r="U145" s="28"/>
-      <c r="V145" s="28"/>
-      <c r="W145" s="28"/>
-      <c r="X145" s="28"/>
-      <c r="Y145" s="28"/>
-      <c r="Z145" s="28"/>
-      <c r="AA145" s="28"/>
-      <c r="AB145" s="28"/>
-      <c r="AC145" s="28"/>
-      <c r="AD145" s="28"/>
-      <c r="AE145" s="28"/>
+      <c r="S145" s="23"/>
+      <c r="T145" s="23"/>
+      <c r="U145" s="23"/>
+      <c r="V145" s="23"/>
+      <c r="W145" s="23"/>
+      <c r="X145" s="23"/>
+      <c r="Y145" s="23"/>
+      <c r="Z145" s="23"/>
+      <c r="AA145" s="23"/>
+      <c r="AB145" s="23"/>
+      <c r="AC145" s="23"/>
+      <c r="AD145" s="23"/>
+      <c r="AE145" s="23"/>
       <c r="AF145" s="6"/>
     </row>
-    <row r="146" spans="1:32" ht="14.25" customHeight="1">
+    <row r="146" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -11445,66 +11516,66 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A147" s="15" t="s">
+    <row r="147" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
       <c r="J147" s="6"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
-      <c r="W147" s="18"/>
-      <c r="X147" s="18"/>
+      <c r="W147" s="14"/>
+      <c r="X147" s="14"/>
       <c r="Y147" s="6"/>
-      <c r="Z147" s="18"/>
-      <c r="AA147" s="18"/>
+      <c r="Z147" s="14"/>
+      <c r="AA147" s="14"/>
       <c r="AB147" s="6"/>
       <c r="AC147" s="6"/>
       <c r="AD147" s="6"/>
       <c r="AE147" s="6"/>
       <c r="AF147" s="6"/>
     </row>
-    <row r="148" spans="1:32" ht="15.00" customHeight="1">
-      <c r="A148" s="24" t="s">
+    <row r="148" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="25">
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="20">
         <v>55</v>
       </c>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="20"/>
-      <c r="O148" s="20"/>
-      <c r="P148" s="20"/>
-      <c r="Q148" s="20"/>
-      <c r="R148" s="20"/>
-      <c r="S148" s="26">
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="34"/>
+      <c r="O148" s="34"/>
+      <c r="P148" s="34"/>
+      <c r="Q148" s="34"/>
+      <c r="R148" s="34"/>
+      <c r="S148" s="21">
         <v>97</v>
       </c>
       <c r="T148" s="10">
@@ -11513,17 +11584,17 @@
       <c r="U148" s="10">
         <v>109</v>
       </c>
-      <c r="V148" s="27">
+      <c r="V148" s="22">
         <v>104</v>
       </c>
-      <c r="W148" s="20"/>
-      <c r="X148" s="20"/>
-      <c r="Y148" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z148" s="20"/>
-      <c r="AA148" s="20"/>
-      <c r="AB148" s="26">
+      <c r="W148" s="34"/>
+      <c r="X148" s="34"/>
+      <c r="Y148" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z148" s="34"/>
+      <c r="AA148" s="34"/>
+      <c r="AB148" s="21">
         <v>98</v>
       </c>
       <c r="AC148" s="10">
@@ -11539,30 +11610,30 @@
         <v>811</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A149" s="24" t="s">
+    <row r="149" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-      <c r="J149" s="25">
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="20">
         <v>11</v>
       </c>
-      <c r="K149" s="20"/>
-      <c r="L149" s="20"/>
-      <c r="M149" s="20"/>
-      <c r="N149" s="20"/>
-      <c r="O149" s="20"/>
-      <c r="P149" s="20"/>
-      <c r="Q149" s="20"/>
-      <c r="R149" s="20"/>
-      <c r="S149" s="26">
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="34"/>
+      <c r="N149" s="34"/>
+      <c r="O149" s="34"/>
+      <c r="P149" s="34"/>
+      <c r="Q149" s="34"/>
+      <c r="R149" s="34"/>
+      <c r="S149" s="21">
         <v>15</v>
       </c>
       <c r="T149" s="10">
@@ -11571,17 +11642,17 @@
       <c r="U149" s="10">
         <v>3</v>
       </c>
-      <c r="V149" s="27">
+      <c r="V149" s="22">
         <v>10</v>
       </c>
-      <c r="W149" s="20"/>
-      <c r="X149" s="20"/>
-      <c r="Y149" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z149" s="20"/>
-      <c r="AA149" s="20"/>
-      <c r="AB149" s="26">
+      <c r="W149" s="34"/>
+      <c r="X149" s="34"/>
+      <c r="Y149" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="34"/>
+      <c r="AA149" s="34"/>
+      <c r="AB149" s="21">
         <v>6</v>
       </c>
       <c r="AC149" s="10">
@@ -11597,34 +11668,34 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="14.25" customHeight="1">
+    <row r="150" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
       <c r="J150" s="6"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="28"/>
-      <c r="M150" s="28"/>
-      <c r="N150" s="28"/>
-      <c r="O150" s="28"/>
-      <c r="P150" s="28"/>
-      <c r="Q150" s="28"/>
-      <c r="R150" s="28"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="23"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="23"/>
+      <c r="O150" s="23"/>
+      <c r="P150" s="23"/>
+      <c r="Q150" s="23"/>
+      <c r="R150" s="23"/>
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
-      <c r="W150" s="28"/>
-      <c r="X150" s="28"/>
+      <c r="W150" s="23"/>
+      <c r="X150" s="23"/>
       <c r="Y150" s="6"/>
-      <c r="Z150" s="28"/>
-      <c r="AA150" s="28"/>
+      <c r="Z150" s="23"/>
+      <c r="AA150" s="23"/>
       <c r="AB150" s="6"/>
       <c r="AC150" s="6"/>
       <c r="AD150" s="6"/>
@@ -11633,197 +11704,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A151" s="15" t="s">
+    <row r="151" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
-      <c r="T151" s="18"/>
-      <c r="U151" s="18"/>
-      <c r="V151" s="18"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+      <c r="R151" s="14"/>
+      <c r="S151" s="14"/>
+      <c r="T151" s="14"/>
+      <c r="U151" s="14"/>
+      <c r="V151" s="14"/>
       <c r="W151" s="6"/>
-      <c r="X151" s="18"/>
-      <c r="Y151" s="18"/>
-      <c r="Z151" s="18"/>
-      <c r="AA151" s="18"/>
-      <c r="AB151" s="18"/>
-      <c r="AC151" s="18"/>
-      <c r="AD151" s="18"/>
-      <c r="AE151" s="18"/>
+      <c r="X151" s="14"/>
+      <c r="Y151" s="14"/>
+      <c r="Z151" s="14"/>
+      <c r="AA151" s="14"/>
+      <c r="AB151" s="14"/>
+      <c r="AC151" s="14"/>
+      <c r="AD151" s="14"/>
+      <c r="AE151" s="14"/>
       <c r="AF151" s="6"/>
     </row>
-    <row r="152" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A152" s="24" t="s">
+    <row r="152" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20"/>
-      <c r="N152" s="20"/>
-      <c r="O152" s="20"/>
-      <c r="P152" s="20"/>
-      <c r="Q152" s="20"/>
-      <c r="R152" s="20"/>
-      <c r="S152" s="20"/>
-      <c r="T152" s="20"/>
-      <c r="U152" s="20"/>
-      <c r="V152" s="20"/>
-      <c r="W152" s="25">
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="34"/>
+      <c r="L152" s="34"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="34"/>
+      <c r="O152" s="34"/>
+      <c r="P152" s="34"/>
+      <c r="Q152" s="34"/>
+      <c r="R152" s="34"/>
+      <c r="S152" s="34"/>
+      <c r="T152" s="34"/>
+      <c r="U152" s="34"/>
+      <c r="V152" s="34"/>
+      <c r="W152" s="20">
         <v>35</v>
       </c>
-      <c r="X152" s="20"/>
-      <c r="Y152" s="20"/>
-      <c r="Z152" s="20"/>
-      <c r="AA152" s="20"/>
-      <c r="AB152" s="20"/>
-      <c r="AC152" s="20"/>
-      <c r="AD152" s="20"/>
-      <c r="AE152" s="20"/>
-      <c r="AF152" s="26">
+      <c r="X152" s="34"/>
+      <c r="Y152" s="34"/>
+      <c r="Z152" s="34"/>
+      <c r="AA152" s="34"/>
+      <c r="AB152" s="34"/>
+      <c r="AC152" s="34"/>
+      <c r="AD152" s="34"/>
+      <c r="AE152" s="34"/>
+      <c r="AF152" s="21">
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A153" s="19" t="s">
+    <row r="153" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="20"/>
-      <c r="N153" s="20"/>
-      <c r="O153" s="20"/>
-      <c r="P153" s="20"/>
-      <c r="Q153" s="20"/>
-      <c r="R153" s="20"/>
-      <c r="S153" s="20"/>
-      <c r="T153" s="20"/>
-      <c r="U153" s="20"/>
-      <c r="V153" s="20"/>
-      <c r="W153" s="21">
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="34"/>
+      <c r="L153" s="34"/>
+      <c r="M153" s="34"/>
+      <c r="N153" s="34"/>
+      <c r="O153" s="34"/>
+      <c r="P153" s="34"/>
+      <c r="Q153" s="34"/>
+      <c r="R153" s="34"/>
+      <c r="S153" s="34"/>
+      <c r="T153" s="34"/>
+      <c r="U153" s="34"/>
+      <c r="V153" s="34"/>
+      <c r="W153" s="16">
         <v>27</v>
       </c>
-      <c r="X153" s="20"/>
-      <c r="Y153" s="20"/>
-      <c r="Z153" s="20"/>
-      <c r="AA153" s="20"/>
-      <c r="AB153" s="20"/>
-      <c r="AC153" s="20"/>
-      <c r="AD153" s="20"/>
-      <c r="AE153" s="20"/>
-      <c r="AF153" s="22">
+      <c r="X153" s="34"/>
+      <c r="Y153" s="34"/>
+      <c r="Z153" s="34"/>
+      <c r="AA153" s="34"/>
+      <c r="AB153" s="34"/>
+      <c r="AC153" s="34"/>
+      <c r="AD153" s="34"/>
+      <c r="AE153" s="34"/>
+      <c r="AF153" s="17">
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A154" s="24" t="s">
+    <row r="154" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
-      <c r="Q154" s="20"/>
-      <c r="R154" s="20"/>
-      <c r="S154" s="20"/>
-      <c r="T154" s="20"/>
-      <c r="U154" s="20"/>
-      <c r="V154" s="20"/>
-      <c r="W154" s="25">
-        <v>1</v>
-      </c>
-      <c r="X154" s="20"/>
-      <c r="Y154" s="20"/>
-      <c r="Z154" s="20"/>
-      <c r="AA154" s="20"/>
-      <c r="AB154" s="20"/>
-      <c r="AC154" s="20"/>
-      <c r="AD154" s="20"/>
-      <c r="AE154" s="20"/>
-      <c r="AF154" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:32" ht="13.00" customHeight="1">
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
+      <c r="L154" s="34"/>
+      <c r="M154" s="34"/>
+      <c r="N154" s="34"/>
+      <c r="O154" s="34"/>
+      <c r="P154" s="34"/>
+      <c r="Q154" s="34"/>
+      <c r="R154" s="34"/>
+      <c r="S154" s="34"/>
+      <c r="T154" s="34"/>
+      <c r="U154" s="34"/>
+      <c r="V154" s="34"/>
+      <c r="W154" s="20">
+        <v>1</v>
+      </c>
+      <c r="X154" s="34"/>
+      <c r="Y154" s="34"/>
+      <c r="Z154" s="34"/>
+      <c r="AA154" s="34"/>
+      <c r="AB154" s="34"/>
+      <c r="AC154" s="34"/>
+      <c r="AD154" s="34"/>
+      <c r="AE154" s="34"/>
+      <c r="AF154" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="28"/>
-      <c r="M155" s="28"/>
-      <c r="N155" s="28"/>
-      <c r="O155" s="28"/>
-      <c r="P155" s="28"/>
-      <c r="Q155" s="28"/>
-      <c r="R155" s="28"/>
-      <c r="S155" s="28"/>
-      <c r="T155" s="28"/>
-      <c r="U155" s="28"/>
-      <c r="V155" s="28"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="23"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="23"/>
+      <c r="N155" s="23"/>
+      <c r="O155" s="23"/>
+      <c r="P155" s="23"/>
+      <c r="Q155" s="23"/>
+      <c r="R155" s="23"/>
+      <c r="S155" s="23"/>
+      <c r="T155" s="23"/>
+      <c r="U155" s="23"/>
+      <c r="V155" s="23"/>
       <c r="W155" s="6"/>
-      <c r="X155" s="28"/>
-      <c r="Y155" s="28"/>
-      <c r="Z155" s="28"/>
-      <c r="AA155" s="28"/>
-      <c r="AB155" s="28"/>
-      <c r="AC155" s="28"/>
-      <c r="AD155" s="28"/>
-      <c r="AE155" s="28"/>
+      <c r="X155" s="23"/>
+      <c r="Y155" s="23"/>
+      <c r="Z155" s="23"/>
+      <c r="AA155" s="23"/>
+      <c r="AB155" s="23"/>
+      <c r="AC155" s="23"/>
+      <c r="AD155" s="23"/>
+      <c r="AE155" s="23"/>
       <c r="AF155" s="6"/>
     </row>
-    <row r="156" spans="1:32" ht="14.25" customHeight="1">
+    <row r="156" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>45</v>
       </c>
@@ -11859,7 +11930,7 @@
       <c r="AE156" s="6"/>
       <c r="AF156" s="6"/>
     </row>
-    <row r="157" spans="1:32" ht="14.25" customHeight="1">
+    <row r="157" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>11</v>
       </c>
@@ -11957,7 +12028,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="14.25" customHeight="1">
+    <row r="158" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>12</v>
       </c>
@@ -12055,7 +12126,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:32" ht="14.25" customHeight="1">
+    <row r="159" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -12091,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="14.25" customHeight="1">
+    <row r="160" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>47</v>
       </c>
@@ -12127,7 +12198,7 @@
       <c r="AE160" s="6"/>
       <c r="AF160" s="6"/>
     </row>
-    <row r="161" spans="1:32" ht="14.25" customHeight="1">
+    <row r="161" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
@@ -12225,7 +12296,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="14.25" customHeight="1">
+    <row r="162" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>12</v>
       </c>
@@ -12323,7 +12394,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:32" ht="14.25" customHeight="1">
+    <row r="163" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -12359,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="12.00" customHeight="1">
+    <row r="164" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -12393,7 +12464,7 @@
       <c r="AE164" s="6"/>
       <c r="AF164" s="6"/>
     </row>
-    <row r="165" spans="1:32" ht="13.00" customHeight="1">
+    <row r="165" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -12427,7 +12498,7 @@
       <c r="AE165" s="6"/>
       <c r="AF165" s="6"/>
     </row>
-    <row r="166" spans="1:32" ht="14.25" customHeight="1">
+    <row r="166" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>61</v>
       </c>
@@ -12525,7 +12596,7 @@
         <v>8253</v>
       </c>
     </row>
-    <row r="167" spans="1:32" ht="14.25" customHeight="1">
+    <row r="167" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>62</v>
       </c>
@@ -12623,7 +12694,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="14.25" customHeight="1">
+    <row r="168" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>63</v>
       </c>
@@ -12721,7 +12792,7 @@
         <v>10123</v>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="14.25" customHeight="1">
+    <row r="169" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>64</v>
       </c>
@@ -12819,105 +12890,105 @@
         <v>40913</v>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="14.25" customHeight="1">
+    <row r="170" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B170" s="43">
-        <v>0.150000</v>
-      </c>
-      <c r="C170" s="43">
-        <v>0.070000</v>
-      </c>
-      <c r="D170" s="43">
-        <v>0.100000</v>
-      </c>
-      <c r="E170" s="43">
-        <v>0.160000</v>
-      </c>
-      <c r="F170" s="43">
-        <v>0.280000</v>
-      </c>
-      <c r="G170" s="43">
-        <v>0.250000</v>
-      </c>
-      <c r="H170" s="43">
-        <v>0.290000</v>
-      </c>
-      <c r="I170" s="43">
-        <v>0.200000</v>
-      </c>
-      <c r="J170" s="43">
-        <v>0.260000</v>
-      </c>
-      <c r="K170" s="43">
-        <v>0.170000</v>
-      </c>
-      <c r="L170" s="43">
-        <v>0.310000</v>
-      </c>
-      <c r="M170" s="43">
-        <v>0.250000</v>
-      </c>
-      <c r="N170" s="43">
-        <v>0.280000</v>
-      </c>
-      <c r="O170" s="43">
-        <v>0.170000</v>
-      </c>
-      <c r="P170" s="43">
-        <v>0.170000</v>
-      </c>
-      <c r="Q170" s="43">
-        <v>0.170000</v>
-      </c>
-      <c r="R170" s="43">
-        <v>0.250000</v>
-      </c>
-      <c r="S170" s="43">
-        <v>0.290000</v>
-      </c>
-      <c r="T170" s="43">
-        <v>0.270000</v>
-      </c>
-      <c r="U170" s="43">
-        <v>0.270000</v>
-      </c>
-      <c r="V170" s="43">
-        <v>0.300000</v>
-      </c>
-      <c r="W170" s="43">
-        <v>0.300000</v>
-      </c>
-      <c r="X170" s="43">
-        <v>0.340000</v>
-      </c>
-      <c r="Y170" s="43">
-        <v>0.210000</v>
-      </c>
-      <c r="Z170" s="43">
-        <v>0.290000</v>
-      </c>
-      <c r="AA170" s="43">
-        <v>0.260000</v>
-      </c>
-      <c r="AB170" s="43">
-        <v>0.270000</v>
-      </c>
-      <c r="AC170" s="43">
-        <v>0.260000</v>
-      </c>
-      <c r="AD170" s="43">
-        <v>0.260000</v>
-      </c>
-      <c r="AE170" s="43">
-        <v>0.260000</v>
-      </c>
-      <c r="AF170" s="43">
-        <v>0.250000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:32" ht="12.00" customHeight="1">
+      <c r="B170" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="C170" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D170" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="E170" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="F170" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G170" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="H170" s="30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I170" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="J170" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="K170" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="L170" s="30">
+        <v>0.31</v>
+      </c>
+      <c r="M170" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="N170" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O170" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="P170" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="Q170" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="R170" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S170" s="30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T170" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="U170" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="V170" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="W170" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="X170" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="Y170" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="Z170" s="30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA170" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="AB170" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="AC170" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="AD170" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="AE170" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="AF170" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -12951,13 +13022,13 @@
       <c r="AE171" s="6"/>
       <c r="AF171" s="6"/>
     </row>
-    <row r="172" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A172" s="29" t="s">
+    <row r="172" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="31"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="37"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
@@ -12987,12 +13058,12 @@
       <c r="AE172" s="6"/>
       <c r="AF172" s="6"/>
     </row>
-    <row r="173" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A173" s="29" t="s">
+    <row r="173" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="31"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="37"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -13025,25 +13096,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:W61"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="AB59:AE61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="J64:J68"/>
-    <mergeCell ref="S64:AE68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B71:I73"/>
-    <mergeCell ref="K71:R73"/>
-    <mergeCell ref="W71:X73"/>
-    <mergeCell ref="Z71:AA73"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="B76:V78"/>
-    <mergeCell ref="X76:AE78"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="B138:W140"/>
-    <mergeCell ref="Y138:Y140"/>
-    <mergeCell ref="AB138:AE140"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="B152:V154"/>
+    <mergeCell ref="X152:AE154"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:C173"/>
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="J142:J144"/>
     <mergeCell ref="S142:AE144"/>
@@ -13052,11 +13109,25 @@
     <mergeCell ref="K148:R149"/>
     <mergeCell ref="W148:X149"/>
     <mergeCell ref="Z148:AA149"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="B152:V154"/>
-    <mergeCell ref="X152:AE154"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="B76:V78"/>
+    <mergeCell ref="X76:AE78"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="B138:W140"/>
+    <mergeCell ref="Y138:Y140"/>
+    <mergeCell ref="AB138:AE140"/>
+    <mergeCell ref="J64:J68"/>
+    <mergeCell ref="S64:AE68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B71:I73"/>
+    <mergeCell ref="K71:R73"/>
+    <mergeCell ref="W71:X73"/>
+    <mergeCell ref="Z71:AA73"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:W61"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="AB59:AE61"/>
+    <mergeCell ref="A63:C63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
